--- a/templates/dataplant/Computation_GEO_minimal.xlsx
+++ b/templates/dataplant/Computation_GEO_minimal.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7439FCB-4F5D-4188-B9A4-570F4018FD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17D5A97-FC83-497E-A1C9-9DB44DCC30EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="4COM01_RNASeq" sheetId="1" r:id="rId1"/>
+    <sheet name="Computation" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="4" r:id="rId2"/>
     <sheet name="GEO_RNASEQ" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -259,9 +259,6 @@
     <t>Authors Affiliation</t>
   </si>
   <si>
-    <t>annotationTableOrdinaryCat87</t>
-  </si>
-  <si>
     <t>GEO</t>
   </si>
   <si>
@@ -504,12 +501,15 @@
   <si>
     <t>http://purl.obolibrary.org/obo/DPBO_0000027</t>
   </si>
+  <si>
+    <t>annotationTableOrdinaryCat88</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,12 +531,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -737,7 +731,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CA35855-14C3-457D-88F0-CFCCF85B5663}" name="annotationTableOrdinaryCat87" displayName="annotationTableOrdinaryCat87" ref="A1:Z5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CA35855-14C3-457D-88F0-CFCCF85B5663}" name="annotationTableOrdinaryCat88" displayName="annotationTableOrdinaryCat88" ref="A1:Z5" totalsRowShown="0">
   <autoFilter ref="A1:Z5" xr:uid="{3CA35855-14C3-457D-88F0-CFCCF85B5663}"/>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{93380294-CB8D-42FC-AF8E-9805327345E7}" name="Source Name"/>
@@ -1102,7 +1096,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1139,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>102</v>
-      </c>
-      <c r="D1" t="s">
-        <v>103</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1187,10 +1183,10 @@
         <v>13</v>
       </c>
       <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
         <v>76</v>
-      </c>
-      <c r="S1" t="s">
-        <v>77</v>
       </c>
       <c r="T1" t="s">
         <v>14</v>
@@ -1211,138 +1207,138 @@
         <v>19</v>
       </c>
       <c r="Z1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
         <v>67</v>
       </c>
-      <c r="L2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" t="s">
-        <v>68</v>
-      </c>
       <c r="O2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" t="s">
         <v>71</v>
       </c>
-      <c r="R2" t="s">
-        <v>78</v>
-      </c>
-      <c r="S2" t="s">
-        <v>78</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W2" t="s">
         <v>72</v>
       </c>
-      <c r="U2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V2" t="s">
-        <v>78</v>
-      </c>
-      <c r="W2" t="s">
-        <v>73</v>
-      </c>
       <c r="X2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z2" s="12"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
       <c r="C3" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z3" s="12"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" t="s">
         <v>79</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>80</v>
       </c>
-      <c r="P4" t="s">
-        <v>81</v>
-      </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z4" s="12"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z5" s="12"/>
     </row>
@@ -1358,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34C41AE-DF76-4303-A53C-3D579ECAFFB9}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,7 +1369,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1381,7 +1377,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1389,7 +1385,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1397,7 +1393,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1405,7 +1401,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1413,7 +1409,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1427,7 +1423,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1435,7 +1431,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1443,7 +1439,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,19 +1453,19 @@
         <v>31</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1495,7 +1491,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1503,7 +1499,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1517,7 +1513,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1543,30 +1539,30 @@
         <v>42</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="9"/>
     </row>
@@ -1602,40 +1598,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1643,19 +1639,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -1666,34 +1662,34 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1701,34 +1697,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="L4" s="10"/>
     </row>
@@ -1737,34 +1733,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="L5" s="10"/>
     </row>
@@ -1773,34 +1769,34 @@
         <v>7</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="E6" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="L6" s="10"/>
     </row>
@@ -1809,34 +1805,34 @@
         <v>10</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="J7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="K7" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="L7" s="10"/>
     </row>
@@ -1845,34 +1841,34 @@
         <v>13</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="J8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="K8" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="L8" s="10"/>
     </row>
@@ -1881,34 +1877,34 @@
         <v>14</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="E9" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="L9" s="10"/>
     </row>
@@ -1917,53 +1913,53 @@
         <v>17</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="E10" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
